--- a/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/linear_equation-Suplhur_contamination-sedimentary_bauxite_only.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/linear_equation-Suplhur_contamination-sedimentary_bauxite_only.xlsx
@@ -1248,314 +1248,314 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="141">

--- a/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/linear_equation-Suplhur_contamination-sedimentary_bauxite_only.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/linear_equation-Suplhur_contamination-sedimentary_bauxite_only.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,18 +456,18 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="5">
@@ -479,12 +479,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -511,20 +507,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -552,10 +540,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="16">
@@ -568,10 +556,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="18">
@@ -592,27 +580,23 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -639,35 +623,27 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="30">
@@ -711,28 +687,20 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0.003333333333333334</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.3333333333333334</v>
-      </c>
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -760,18 +728,18 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="43">
@@ -784,10 +752,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="45">
@@ -800,58 +768,58 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="53">
@@ -888,10 +856,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="58">
@@ -904,90 +872,90 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.0025</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.0025</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.0025</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.0025</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="70">
@@ -1000,50 +968,42 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.0025</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>0.002857142857142857</v>
-      </c>
-      <c r="B73" t="n">
-        <v>-0.1428571428571428</v>
-      </c>
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>0.002857142857142857</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.1428571428571428</v>
-      </c>
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="77">
@@ -1056,26 +1016,26 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.002857142857142857</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="81">
@@ -1088,10 +1048,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="83">
@@ -1160,10 +1120,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="92">
@@ -1224,10 +1184,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="100">
@@ -1248,26 +1208,26 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0025</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.25</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="105">
@@ -1280,50 +1240,50 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.0025</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.25</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="112">
@@ -1335,59 +1295,51 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.25</v>
-      </c>
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.0025</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.25</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.0025</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.25</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.25</v>
-      </c>
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.0025</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.25</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.0025</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.25</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="120">
@@ -1408,138 +1360,134 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.25</v>
-      </c>
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.0025</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.25</v>
+        <v>-0.3333333333333334</v>
       </c>
     </row>
     <row r="139">
@@ -1560,26 +1508,26 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="144">
@@ -1600,34 +1548,34 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="150">
@@ -1656,18 +1604,18 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="155">
@@ -1680,10 +1628,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="157">
@@ -1696,26 +1644,26 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.0025</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.003333333333333334</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.3333333333333334</v>
+        <v>-0.1428571428571428</v>
       </c>
     </row>
     <row r="161">
@@ -1732,6 +1680,110 @@
       </c>
       <c r="B162" t="n">
         <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.002857142857142857</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.003333333333333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.3333333333333334</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
